--- a/experiment/output/results/TerraIncognita/RSC/DG/0.xlsx
+++ b/experiment/output/results/TerraIncognita/RSC/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,145 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250129_09-23-25_resnet50_EVE</t>
+          <t>250218_07-57-32_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56.631</v>
+        <v>57.342</v>
       </c>
       <c r="E2" t="n">
-        <v>59.293</v>
+        <v>57.342</v>
       </c>
       <c r="F2" t="n">
-        <v>47.403</v>
+        <v>48.8</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250218_11-24-10_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250129_09-23-25_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>56.631</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59.293</v>
+      </c>
+      <c r="F4" t="n">
+        <v>47.403</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250218_09-50-14_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>24.835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24.835</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.617</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250218_06-06-43_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>57.527</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.978</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44.978</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
